--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Angpt1-Tek.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Angpt1-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Tek</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>14.1574146998869</v>
+        <v>0.09342833333333334</v>
       </c>
       <c r="H2">
-        <v>14.1574146998869</v>
+        <v>0.280285</v>
       </c>
       <c r="I2">
-        <v>0.7651635130541197</v>
+        <v>0.004971127078137211</v>
       </c>
       <c r="J2">
-        <v>0.7651635130541197</v>
+        <v>0.004971127078137211</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.8628428355598</v>
+        <v>39.413899</v>
       </c>
       <c r="N2">
-        <v>10.8628428355598</v>
+        <v>118.241697</v>
       </c>
       <c r="O2">
-        <v>0.4334108883179406</v>
+        <v>0.7310109930444597</v>
       </c>
       <c r="P2">
-        <v>0.4334108883179406</v>
+        <v>0.7310109930444597</v>
       </c>
       <c r="Q2">
-        <v>153.7897708427154</v>
+        <v>3.682374893738333</v>
       </c>
       <c r="R2">
-        <v>153.7897708427154</v>
+        <v>33.141374043645</v>
       </c>
       <c r="S2">
-        <v>0.3316301979012621</v>
+        <v>0.003633948541939286</v>
       </c>
       <c r="T2">
-        <v>0.3316301979012621</v>
+        <v>0.003633948541939286</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>14.1574146998869</v>
+        <v>0.09342833333333334</v>
       </c>
       <c r="H3">
-        <v>14.1574146998869</v>
+        <v>0.280285</v>
       </c>
       <c r="I3">
-        <v>0.7651635130541197</v>
+        <v>0.004971127078137211</v>
       </c>
       <c r="J3">
-        <v>0.7651635130541197</v>
+        <v>0.004971127078137211</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.2588911065236</v>
+        <v>11.40791933333333</v>
       </c>
       <c r="N3">
-        <v>11.2588911065236</v>
+        <v>34.223758</v>
       </c>
       <c r="O3">
-        <v>0.4492126112677838</v>
+        <v>0.2115830874897988</v>
       </c>
       <c r="P3">
-        <v>0.4492126112677838</v>
+        <v>0.2115830874897987</v>
       </c>
       <c r="Q3">
-        <v>159.3967904559231</v>
+        <v>1.065822890114444</v>
       </c>
       <c r="R3">
-        <v>159.3967904559231</v>
+        <v>9.59240601103</v>
       </c>
       <c r="S3">
-        <v>0.3437210997458721</v>
+        <v>0.001051806415496413</v>
       </c>
       <c r="T3">
-        <v>0.3437210997458721</v>
+        <v>0.001051806415496413</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>14.1574146998869</v>
+        <v>0.09342833333333334</v>
       </c>
       <c r="H4">
-        <v>14.1574146998869</v>
+        <v>0.280285</v>
       </c>
       <c r="I4">
-        <v>0.7651635130541197</v>
+        <v>0.004971127078137211</v>
       </c>
       <c r="J4">
-        <v>0.7651635130541197</v>
+        <v>0.004971127078137211</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.94187919813623</v>
+        <v>3.095153333333334</v>
       </c>
       <c r="N4">
-        <v>2.94187919813623</v>
+        <v>9.28546</v>
       </c>
       <c r="O4">
-        <v>0.1173765004142755</v>
+        <v>0.05740591946574151</v>
       </c>
       <c r="P4">
-        <v>0.1173765004142755</v>
+        <v>0.0574059194657415</v>
       </c>
       <c r="Q4">
-        <v>41.64940380498535</v>
+        <v>0.2891750173444445</v>
       </c>
       <c r="R4">
-        <v>41.64940380498535</v>
+        <v>2.6025751561</v>
       </c>
       <c r="S4">
-        <v>0.08981221540698535</v>
+        <v>0.0002853721207015117</v>
       </c>
       <c r="T4">
-        <v>0.08981221540698535</v>
+        <v>0.0002853721207015116</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.34505497927768</v>
+        <v>14.289121</v>
       </c>
       <c r="H5">
-        <v>4.34505497927768</v>
+        <v>42.867363</v>
       </c>
       <c r="I5">
-        <v>0.2348364869458803</v>
+        <v>0.760294375288143</v>
       </c>
       <c r="J5">
-        <v>0.2348364869458803</v>
+        <v>0.760294375288143</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.8628428355598</v>
+        <v>39.413899</v>
       </c>
       <c r="N5">
-        <v>10.8628428355598</v>
+        <v>118.241697</v>
       </c>
       <c r="O5">
-        <v>0.4334108883179406</v>
+        <v>0.7310109930444597</v>
       </c>
       <c r="P5">
-        <v>0.4334108883179406</v>
+        <v>0.7310109930444597</v>
       </c>
       <c r="Q5">
-        <v>47.19964935175997</v>
+        <v>563.189971892779</v>
       </c>
       <c r="R5">
-        <v>47.19964935175997</v>
+        <v>5068.709747035011</v>
       </c>
       <c r="S5">
-        <v>0.1017806904166785</v>
+        <v>0.5557835462855025</v>
       </c>
       <c r="T5">
-        <v>0.1017806904166785</v>
+        <v>0.5557835462855025</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.34505497927768</v>
+        <v>14.289121</v>
       </c>
       <c r="H6">
-        <v>4.34505497927768</v>
+        <v>42.867363</v>
       </c>
       <c r="I6">
-        <v>0.2348364869458803</v>
+        <v>0.760294375288143</v>
       </c>
       <c r="J6">
-        <v>0.2348364869458803</v>
+        <v>0.760294375288143</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.2588911065236</v>
+        <v>11.40791933333333</v>
       </c>
       <c r="N6">
-        <v>11.2588911065236</v>
+        <v>34.223758</v>
       </c>
       <c r="O6">
-        <v>0.4492126112677838</v>
+        <v>0.2115830874897988</v>
       </c>
       <c r="P6">
-        <v>0.4492126112677838</v>
+        <v>0.2115830874897987</v>
       </c>
       <c r="Q6">
-        <v>48.92050086354556</v>
+        <v>163.0091397122393</v>
       </c>
       <c r="R6">
-        <v>48.92050086354556</v>
+        <v>1467.082257410154</v>
       </c>
       <c r="S6">
-        <v>0.1054915115219117</v>
+        <v>0.1608654313245931</v>
       </c>
       <c r="T6">
-        <v>0.1054915115219117</v>
+        <v>0.1608654313245931</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>14.289121</v>
+      </c>
+      <c r="H7">
+        <v>42.867363</v>
+      </c>
+      <c r="I7">
+        <v>0.760294375288143</v>
+      </c>
+      <c r="J7">
+        <v>0.760294375288143</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.095153333333334</v>
+      </c>
+      <c r="N7">
+        <v>9.28546</v>
+      </c>
+      <c r="O7">
+        <v>0.05740591946574151</v>
+      </c>
+      <c r="P7">
+        <v>0.0574059194657415</v>
+      </c>
+      <c r="Q7">
+        <v>44.22702049355334</v>
+      </c>
+      <c r="R7">
+        <v>398.04318444198</v>
+      </c>
+      <c r="S7">
+        <v>0.04364539767804739</v>
+      </c>
+      <c r="T7">
+        <v>0.04364539767804738</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.411646</v>
+      </c>
+      <c r="H8">
+        <v>13.234938</v>
+      </c>
+      <c r="I8">
+        <v>0.2347344976337197</v>
+      </c>
+      <c r="J8">
+        <v>0.2347344976337198</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>39.413899</v>
+      </c>
+      <c r="N8">
+        <v>118.241697</v>
+      </c>
+      <c r="O8">
+        <v>0.7310109930444597</v>
+      </c>
+      <c r="P8">
+        <v>0.7310109930444597</v>
+      </c>
+      <c r="Q8">
+        <v>173.880169867754</v>
+      </c>
+      <c r="R8">
+        <v>1564.921528809786</v>
+      </c>
+      <c r="S8">
+        <v>0.1715934982170178</v>
+      </c>
+      <c r="T8">
+        <v>0.1715934982170179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>4.34505497927768</v>
-      </c>
-      <c r="H7">
-        <v>4.34505497927768</v>
-      </c>
-      <c r="I7">
-        <v>0.2348364869458803</v>
-      </c>
-      <c r="J7">
-        <v>0.2348364869458803</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>2.94187919813623</v>
-      </c>
-      <c r="N7">
-        <v>2.94187919813623</v>
-      </c>
-      <c r="O7">
-        <v>0.1173765004142755</v>
-      </c>
-      <c r="P7">
-        <v>0.1173765004142755</v>
-      </c>
-      <c r="Q7">
-        <v>12.78262685829525</v>
-      </c>
-      <c r="R7">
-        <v>12.78262685829525</v>
-      </c>
-      <c r="S7">
-        <v>0.02756428500729012</v>
-      </c>
-      <c r="T7">
-        <v>0.02756428500729012</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.411646</v>
+      </c>
+      <c r="H9">
+        <v>13.234938</v>
+      </c>
+      <c r="I9">
+        <v>0.2347344976337197</v>
+      </c>
+      <c r="J9">
+        <v>0.2347344976337198</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>11.40791933333333</v>
+      </c>
+      <c r="N9">
+        <v>34.223758</v>
+      </c>
+      <c r="O9">
+        <v>0.2115830874897988</v>
+      </c>
+      <c r="P9">
+        <v>0.2115830874897987</v>
+      </c>
+      <c r="Q9">
+        <v>50.32770169522267</v>
+      </c>
+      <c r="R9">
+        <v>452.9493152570041</v>
+      </c>
+      <c r="S9">
+        <v>0.04966584974970928</v>
+      </c>
+      <c r="T9">
+        <v>0.04966584974970929</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.411646</v>
+      </c>
+      <c r="H10">
+        <v>13.234938</v>
+      </c>
+      <c r="I10">
+        <v>0.2347344976337197</v>
+      </c>
+      <c r="J10">
+        <v>0.2347344976337198</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.095153333333334</v>
+      </c>
+      <c r="N10">
+        <v>9.28546</v>
+      </c>
+      <c r="O10">
+        <v>0.05740591946574151</v>
+      </c>
+      <c r="P10">
+        <v>0.0574059194657415</v>
+      </c>
+      <c r="Q10">
+        <v>13.65472082238667</v>
+      </c>
+      <c r="R10">
+        <v>122.89248740148</v>
+      </c>
+      <c r="S10">
+        <v>0.01347514966699261</v>
+      </c>
+      <c r="T10">
+        <v>0.01347514966699261</v>
       </c>
     </row>
   </sheetData>
